--- a/public/data/Q2_2018/deactivation_senate_staff_q2_2018_for_handler.xlsx
+++ b/public/data/Q2_2018/deactivation_senate_staff_q2_2018_for_handler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alisonhmullin/Development/advocacy_institute/deactivation_handler/public/data/Q2_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEF42E5-A4A7-894D-A70B-A40969308487}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05936AE0-9E66-784B-A355-7D353078B737}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{D98035F9-B99A-0E4D-AF17-F1294E91DAC8}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
